--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85A09D-54CD-C44F-9FE1-CD8F5D27030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="translation"/>
-    <sheet r:id="rId2" sheetId="2" name="consolidation"/>
+    <sheet name="translation" sheetId="1" r:id="rId1"/>
+    <sheet name="consolidation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
   <si>
     <t>biomarker</t>
   </si>
@@ -134,15 +140,23 @@
     <t>x</t>
   </si>
   <si>
-    <t>b</t>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>PAX2</t>
+  </si>
+  <si>
+    <t>GATA3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +182,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,44 +217,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,10 +257,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -286,71 +298,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,7 +390,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -401,11 +413,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -414,13 +426,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -430,7 +442,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -439,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -448,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -456,10 +468,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -524,22 +536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,376 +564,630 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>8</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>9</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="3" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4">
         <v>9</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="4">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="4">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -927,15 +1195,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,303 +1217,299 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
     </row>

--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85A09D-54CD-C44F-9FE1-CD8F5D27030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BB99F-D776-6642-BC5D-FD05C0026582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
   <si>
     <t>biomarker</t>
   </si>
@@ -150,6 +150,45 @@
   </si>
   <si>
     <t>GATA3</t>
+  </si>
+  <si>
+    <t>TTF1</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>CDX2</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>membranous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytoplasmic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unk </t>
+  </si>
+  <si>
+    <t>MSH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSH6 </t>
+  </si>
+  <si>
+    <t>MSH6</t>
+  </si>
+  <si>
+    <t>PMS2</t>
+  </si>
+  <si>
+    <t>ARID1A</t>
+  </si>
+  <si>
+    <t>RB1</t>
   </si>
 </sst>
 </file>
@@ -540,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1092,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1125,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -1136,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -1147,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -1158,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -1169,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1177,6 +1216,603 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="4">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="4">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="6">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="6">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="4">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="4">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="4">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="4">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="4">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="4">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="4">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="4">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="4">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="4">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="4">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="4">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" t="s">
         <v>11</v>
       </c>
     </row>

--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BB99F-D776-6642-BC5D-FD05C0026582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B7CDB1-061A-D347-89FC-1DC95B0D2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="61">
   <si>
     <t>biomarker</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>RB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16 </t>
+  </si>
+  <si>
+    <t>abnormal complete absence</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abnormal block </t>
+  </si>
+  <si>
+    <t>p16</t>
   </si>
 </sst>
 </file>
@@ -579,10 +594,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1814,6 +1829,72 @@
       </c>
       <c r="C111" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="6">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="6">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="6">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B7CDB1-061A-D347-89FC-1DC95B0D2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F27AE-C10D-3A48-A0A7-42043C11C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="61">
   <si>
     <t>biomarker</t>
   </si>
@@ -594,10 +594,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -868,18 +868,18 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -898,10 +898,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -920,10 +920,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -931,10 +931,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,18 +942,18 @@
         <v>23</v>
       </c>
       <c r="B31" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
+      <c r="B32" s="4">
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -963,8 +963,8 @@
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,10 +986,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1008,18 +1008,18 @@
         <v>39</v>
       </c>
       <c r="B37" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
+      <c r="B38" s="4">
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1030,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,10 +1052,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1063,10 +1063,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1074,18 +1074,18 @@
         <v>40</v>
       </c>
       <c r="B43" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>38</v>
+      <c r="B44" s="4">
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,10 +1118,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,10 +1129,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,18 +1140,18 @@
         <v>41</v>
       </c>
       <c r="B49" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>38</v>
+      <c r="B50" s="4">
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,10 +1184,10 @@
         <v>42</v>
       </c>
       <c r="B53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,10 +1195,10 @@
         <v>42</v>
       </c>
       <c r="B54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,18 +1206,18 @@
         <v>42</v>
       </c>
       <c r="B55" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>38</v>
+      <c r="B56" s="4">
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -1228,7 +1228,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
         <v>44</v>
@@ -1253,10 +1253,10 @@
         <v>43</v>
       </c>
       <c r="B59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1264,10 +1264,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,18 +1275,18 @@
         <v>43</v>
       </c>
       <c r="B61" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>38</v>
+      <c r="B62" s="4">
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -1297,7 +1297,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1319,10 +1319,10 @@
         <v>45</v>
       </c>
       <c r="B65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1330,10 +1330,10 @@
         <v>45</v>
       </c>
       <c r="B66" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,18 +1341,18 @@
         <v>45</v>
       </c>
       <c r="B67" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>38</v>
+      <c r="B68" s="4">
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>45</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,10 +1385,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1396,10 +1396,10 @@
         <v>46</v>
       </c>
       <c r="B72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,10 +1407,10 @@
         <v>46</v>
       </c>
       <c r="B73" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,21 +1418,21 @@
         <v>46</v>
       </c>
       <c r="B74" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>38</v>
+      <c r="B75" s="6">
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1462,10 +1462,10 @@
         <v>50</v>
       </c>
       <c r="B78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1473,10 +1473,10 @@
         <v>50</v>
       </c>
       <c r="B79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,10 +1484,10 @@
         <v>50</v>
       </c>
       <c r="B80" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -1506,7 +1506,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -1516,8 +1516,8 @@
       <c r="A83" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>38</v>
+      <c r="B83" s="4">
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -1525,24 +1525,24 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,32 +1550,32 @@
         <v>51</v>
       </c>
       <c r="B86" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -1593,8 +1593,8 @@
       <c r="A90" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>38</v>
+      <c r="B90" s="4">
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -1602,35 +1602,35 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="4">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,10 +1638,10 @@
         <v>53</v>
       </c>
       <c r="B94" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1649,10 +1649,10 @@
         <v>53</v>
       </c>
       <c r="B95" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,18 +1660,18 @@
         <v>53</v>
       </c>
       <c r="B96" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>38</v>
+      <c r="B97" s="4">
+        <v>3</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -1679,43 +1679,43 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="4">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="4">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -1726,10 +1726,10 @@
         <v>54</v>
       </c>
       <c r="B102" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1737,62 +1737,62 @@
         <v>54</v>
       </c>
       <c r="B103" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>54</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>38</v>
+      <c r="B104" s="4">
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B105" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" s="4">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109" s="4">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -1814,86 +1814,163 @@
         <v>55</v>
       </c>
       <c r="B110" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>38</v>
+      <c r="B111" s="4">
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B112" s="6">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B112" s="4">
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="6">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B113" s="4">
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" s="6">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B114" s="4">
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" s="6">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="B115" s="4">
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>60</v>
-      </c>
-      <c r="B116" s="6">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="6">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="6">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>60</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B121" s="6">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="6">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s">
         <v>49</v>
       </c>
     </row>

--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F27AE-C10D-3A48-A0A7-42043C11C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3AB29-95CE-C141-AAA6-FAEAC85329D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/biomarker_rules_example.xlsx
+++ b/inst/extdata/biomarker_rules_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/GitHub/EDGEResearch - CA:TMATools/TMAtools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80768D8-2B6A-4A4D-B11A-D0F3E97AD4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18453C6D-D54A-D44E-B2BA-FD6AD54260BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
